--- a/graph_generation/results_prelim/gpt3.5/level_8/k_3.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_8/k_3.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
@@ -83,44 +88,35 @@
  Given these examples, answer the following quesiton.
 what is the least cost path from node A to node O?
    A B C D E F G H I J K L M N O
- A 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- E 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0
- F 0 0 4 0 0 0 4 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- K 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0
+ G 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 5 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
     <t>No possible path from A to O</t>
   </si>
   <si>
-    <t>To determine the least cost path from node A to node O, we can use Dijkstra's algorithm. 
-Here are the steps for applying Dijkstra's algorithm:
-1. Initialize a distance array to keep track of the cost of reaching each node from node A. Initialize the distance of node A as 0 and the distance of all other nodes as infinity.
-2. Initialize a visited array to keep track of the visited nodes. Initialize all nodes as unvisited.
-3. While there are unvisited nodes:
-   - Select the node with the smallest distance from the distance array (ignoring nodes that have already been visited).
-   - Mark the selected node as visited.
-   - Update the distance of its neighboring nodes if a shorter path is found. To update the distance, add the cost of the current node to the distance of the selected node. If this updated distance is smaller than the current distance, replace it.
-4. Once all nodes have been visited, the distance array will contain the least cost of reaching each node from node A.
-To apply Dijkstra's algorithm to the given graph, we start with node A and follow the steps mentioned above. 
-The resulting distance array after applying Dijkstra's algorithm to the given graph is:
-[0, 1, 2, 3, 4, 5, 9, 8, 9, 9, 9, 9, 10, 11, 10] 
-Based on this distance array, we can infer that the least cost path from node A to node O is: A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M -&gt; O. 
-So, the least cost path from node A to node O is: A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M -&gt; O.</t>
+    <t>The least cost path from node A to node O is as follows:
+A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; L -&gt; O</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 0/1</t>
   </si>
 </sst>
 </file>
@@ -478,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,19 +493,85 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_8/k_3.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_8/k_3.xlsx
@@ -33,9 +33,9 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node P?
+Example 1: what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 5 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
@@ -54,7 +54,7 @@
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from A to P
-Example 2: what is the least cost path from node A to node P?
+Example 2: what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 5 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
@@ -73,7 +73,7 @@
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
  P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
 Solution: No possible path from A to P
-Example 3: what is the least cost path from node A to node I?
+Example 3: what is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 1 0 3 0 0 0 0 0
  B 0 0 5 0 0 0 0 0 0
@@ -86,37 +86,37 @@
  I 0 0 0 0 0 3 0 0 0
 Solution: No possible path from A to I
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node O?
-   A B C D E F G H I J K L M N O
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 5 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+what is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 4 0 0 3 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
     </t>
   </si>
   <si>
-    <t>No possible path from A to O</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node O is as follows:
-A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; L -&gt; O</t>
+    <t>No possible path from A to P</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is: A - B - C - D - E - F - G - H - I - J - K - L - M - N - O - P</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 0/1</t>
+    <t>0/0</t>
   </si>
 </sst>
 </file>
